--- a/output/fit_clients/fit_round_350.xlsx
+++ b/output/fit_clients/fit_round_350.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1595397452.637542</v>
+        <v>1938893216.710784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08199810498376459</v>
+        <v>0.08652710235348206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02966045152051778</v>
+        <v>0.0452968008967588</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>797698667.5659516</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1930114203.595026</v>
+        <v>2243718237.721912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1719965896122317</v>
+        <v>0.1642464602003429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03461263342163172</v>
+        <v>0.04081388683284842</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>965057131.0387633</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3174588203.854472</v>
+        <v>4405171763.448556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1081571435656251</v>
+        <v>0.1182676059031632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03425039398196721</v>
+        <v>0.02986046676135837</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1587294057.634606</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3685868087.856283</v>
+        <v>4109387609.505466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09725462015761731</v>
+        <v>0.07714858026577442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04012986974528505</v>
+        <v>0.03291184521548829</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1842934068.418643</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2681964252.986404</v>
+        <v>2707404660.634152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1288309903825244</v>
+        <v>0.1157399357549957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05137763352208916</v>
+        <v>0.04207971471051406</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1340982082.292377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2886252486.38413</v>
+        <v>2527860180.629256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07253031421132151</v>
+        <v>0.06777182733825887</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03407467856983673</v>
+        <v>0.03941852134151071</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1443126219.029197</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2475992969.747331</v>
+        <v>3906766043.243633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2118351434325485</v>
+        <v>0.2059127572568549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0251317285447043</v>
+        <v>0.02690010441544963</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1237996488.828844</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1666166809.411714</v>
+        <v>1869352642.768986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1668193559942519</v>
+        <v>0.1577779504145338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03452881710299865</v>
+        <v>0.02715813538547831</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>833083477.6446344</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4047566430.215576</v>
+        <v>5746440287.585694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1618455116078548</v>
+        <v>0.1879946965939978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05258179456729244</v>
+        <v>0.04794606046136077</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>147</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2023783240.721746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2644316276.773446</v>
+        <v>4032844249.454584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1276856079319868</v>
+        <v>0.1915153974468094</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04807466870731943</v>
+        <v>0.04198025602930874</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>145</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1322158056.540971</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3186352912.027658</v>
+        <v>2053314377.952838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1908539842458968</v>
+        <v>0.1310777859455407</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03660000189322574</v>
+        <v>0.05203291818719254</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>120</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1593176491.109176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5097569145.056859</v>
+        <v>4759226338.446003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09555788948812934</v>
+        <v>0.07481852981298116</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02972402466119635</v>
+        <v>0.02796981777996174</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2548784571.721341</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3040056089.424849</v>
+        <v>3005642849.984529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1459097008479759</v>
+        <v>0.1522285927859513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0363486255259793</v>
+        <v>0.0281932277044634</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>112</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1520028076.259429</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1492196196.207131</v>
+        <v>1839550808.949789</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07973895914699178</v>
+        <v>0.0801804759298749</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03812446116197418</v>
+        <v>0.03691389062205108</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>746098181.8515197</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2125646070.499771</v>
+        <v>2476733289.580161</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09960088599468994</v>
+        <v>0.09274967513327652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04098683357699522</v>
+        <v>0.0515623600654939</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>70</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1062823099.514156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4020164661.655575</v>
+        <v>4691326853.154914</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1385063253623147</v>
+        <v>0.1740051648659227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03802807182011692</v>
+        <v>0.04715058263495314</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2010082364.458389</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2911205443.694757</v>
+        <v>3254603583.772635</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1396527487590936</v>
+        <v>0.1171017239302084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03406431634202986</v>
+        <v>0.03396785632479392</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>115</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1455602758.598072</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1142266148.321201</v>
+        <v>1282496782.784217</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171947753687129</v>
+        <v>0.1613856177087009</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174130957460271</v>
+        <v>0.02129384215645401</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>571133138.0172422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2004291147.532713</v>
+        <v>2038203116.210176</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1040612843632682</v>
+        <v>0.1481667299753697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02625052023600781</v>
+        <v>0.02753296162709111</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1002145599.664673</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1817467223.659122</v>
+        <v>2272204327.550522</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07969191093692289</v>
+        <v>0.09517373277676494</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03879851788172561</v>
+        <v>0.04209373998384501</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>908733665.266264</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3813284245.253519</v>
+        <v>2509372859.207834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09859097704371934</v>
+        <v>0.1126390132449999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05110583290101633</v>
+        <v>0.04241057815844864</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1906642135.462651</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>986614752.3109267</v>
+        <v>1546657789.98699</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1646995106764947</v>
+        <v>0.1822685161131043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0504316384261185</v>
+        <v>0.04053474949181149</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>493307448.5910746</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3215650226.077785</v>
+        <v>2952515537.316441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1203988995797573</v>
+        <v>0.1069393646937012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02808194368962101</v>
+        <v>0.03214389942566589</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>102</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1607825133.782514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1279822649.818174</v>
+        <v>1179707215.274315</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210514658159399</v>
+        <v>0.113378788881985</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03038787272168464</v>
+        <v>0.02090019898959437</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>639911324.5252839</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1387904270.493948</v>
+        <v>1330667010.16312</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227814723146038</v>
+        <v>0.1222535332262374</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02792727240157864</v>
+        <v>0.02870230890933987</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>693952202.3293163</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4323027852.69505</v>
+        <v>4026128213.786062</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1405423595704771</v>
+        <v>0.09754379282537051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0209367241215608</v>
+        <v>0.01698290543340853</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2161513920.488587</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2387347724.004554</v>
+        <v>3178247908.122328</v>
       </c>
       <c r="F28" t="n">
-        <v>0.111318070467839</v>
+        <v>0.1509032143041342</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03479601552453784</v>
+        <v>0.03796662715308968</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1193673820.054031</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3951192468.375437</v>
+        <v>5823639949.49336</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1457001535823138</v>
+        <v>0.1041186250724749</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03945493228428818</v>
+        <v>0.03464402099648586</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>155</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1975596254.407933</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1509000086.137383</v>
+        <v>2017881262.434786</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1051936628918034</v>
+        <v>0.08552218527403911</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03017646296191625</v>
+        <v>0.0329387447479268</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>754500024.6162642</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1330184514.033382</v>
+        <v>1163637603.789641</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1019737119433784</v>
+        <v>0.08809993571386339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05229561624217811</v>
+        <v>0.047823142658049</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>665092177.853408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1768077113.70944</v>
+        <v>1598145872.36196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09452284905058891</v>
+        <v>0.0861432081622068</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02605854527343908</v>
+        <v>0.02524202107203629</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>884038680.7488194</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2332470529.818923</v>
+        <v>1918015813.262626</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1456839050639849</v>
+        <v>0.178051533685658</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05209938181638602</v>
+        <v>0.04297576721935176</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1166235317.378565</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1333357738.783893</v>
+        <v>1422754017.59705</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08427426789188273</v>
+        <v>0.08610481960867571</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02556025414470739</v>
+        <v>0.01897116281102669</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>666678852.5897071</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1242235418.752532</v>
+        <v>1286278303.581729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07956336391432865</v>
+        <v>0.07129249725634124</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03262700527366394</v>
+        <v>0.03454494703390755</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>621117674.8432065</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2217174740.532646</v>
+        <v>2092647142.768258</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164990903103992</v>
+        <v>0.1743561738756148</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01808274734511875</v>
+        <v>0.02558083413155834</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1108587414.92428</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2027616645.408839</v>
+        <v>2854128558.156473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07939541439824953</v>
+        <v>0.1050043067485517</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03837620641271278</v>
+        <v>0.04120641705367509</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1013808353.78753</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1791258152.924577</v>
+        <v>2172507156.067834</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1026600458162098</v>
+        <v>0.07964282255841172</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03506237550024809</v>
+        <v>0.03258190634306928</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>895629084.5821899</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867890359.864184</v>
+        <v>1902551961.136356</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1935800511838551</v>
+        <v>0.1411393362654008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02627154759616494</v>
+        <v>0.02541783328422632</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>933945194.5618919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1555527188.490026</v>
+        <v>1712016637.31809</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1051586317711567</v>
+        <v>0.1325110156272296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05941622099564192</v>
+        <v>0.04980344500234836</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>777763546.5379912</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2235029188.320528</v>
+        <v>2006636178.770978</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1221533501236532</v>
+        <v>0.1477172199369005</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03658049165819434</v>
+        <v>0.03741310044734675</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1117514645.352934</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3634950035.667271</v>
+        <v>2772251912.401845</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1066094497009808</v>
+        <v>0.1015495961707378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02917232101625561</v>
+        <v>0.02877449622251082</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1817475021.980747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1869122147.646582</v>
+        <v>2687961780.773875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2009383668817061</v>
+        <v>0.1306316480412963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02473653453480102</v>
+        <v>0.01883048768289978</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
-      <c r="J43" t="n">
-        <v>934561185.9461721</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2033503027.865812</v>
+        <v>1747306989.051869</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09549739706529622</v>
+        <v>0.08782136112032184</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02383629410303616</v>
+        <v>0.03010287269600678</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1016751626.969398</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2387889243.180926</v>
+        <v>2442447622.172751</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1814431708572072</v>
+        <v>0.1238117897580358</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04893848324055481</v>
+        <v>0.04885616444551587</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1193944651.596041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5379796599.884514</v>
+        <v>5440394663.890686</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1236282148905836</v>
+        <v>0.1488747446964242</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05228903349022215</v>
+        <v>0.04107334761889413</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>125</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2689898348.521255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4960034120.574827</v>
+        <v>4374157188.145043</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1787164231222029</v>
+        <v>0.1911563249086199</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05547708765391238</v>
+        <v>0.05510703492110784</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2480017113.809698</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3173808947.983162</v>
+        <v>3778838096.121813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07265045491131668</v>
+        <v>0.08841314118558012</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03715949840392974</v>
+        <v>0.02881865523140832</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>115</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1586904556.416382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1754933827.005779</v>
+        <v>1577851703.392156</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1525297324085286</v>
+        <v>0.1948384410566849</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02949428701675329</v>
+        <v>0.04150466402826904</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>877466905.9027885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3820345454.216076</v>
+        <v>3838364108.563665</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1131203329922591</v>
+        <v>0.1720608869386678</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04455013768412837</v>
+        <v>0.04168395077731734</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1910172728.577085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1541542740.96822</v>
+        <v>1540423507.7187</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1671052105623249</v>
+        <v>0.1354102661316071</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03348494331566295</v>
+        <v>0.04539741066491386</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>770771366.6826752</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4436537795.397055</v>
+        <v>4615666387.05854</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1136821519972563</v>
+        <v>0.1145658789641876</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04102288826651969</v>
+        <v>0.04106862027688164</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>144</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218268928.492892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3649659899.437065</v>
+        <v>2670751953.504591</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1932769436448908</v>
+        <v>0.1842105766864363</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03502309530989899</v>
+        <v>0.02538794679084823</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>100</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1824829937.307646</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3989040071.904975</v>
+        <v>4805578142.63007</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1653964279625824</v>
+        <v>0.1173527845546071</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03326240872978087</v>
+        <v>0.0365844340967124</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1994520099.179584</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3865823030.551547</v>
+        <v>4483845751.055878</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1692882202794354</v>
+        <v>0.223782199727985</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01991945964426252</v>
+        <v>0.02018727843139561</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1932911484.260592</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1800732599.049202</v>
+        <v>1693214821.62231</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1565710767151259</v>
+        <v>0.1618303001761524</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05069601084075551</v>
+        <v>0.03908976545391998</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>900366297.240832</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3269553970.937109</v>
+        <v>3497591312.657788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.118351727316843</v>
+        <v>0.1579366127837878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02192750452176839</v>
+        <v>0.02517029621328783</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1634777012.513672</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1258573725.359673</v>
+        <v>1736856469.566227</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1982130789033995</v>
+        <v>0.1252048450009422</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03688962024418671</v>
+        <v>0.0285344501081253</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>629286915.8571875</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4974691895.815092</v>
+        <v>4692782600.413813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1016995066841977</v>
+        <v>0.09318142737097505</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04233815528614</v>
+        <v>0.04050404219822438</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>98</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2487345876.845212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3658103508.117982</v>
+        <v>2700703211.042998</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1933791949788682</v>
+        <v>0.1544629308997225</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02327163224270258</v>
+        <v>0.02708680993343015</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1829051893.45298</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2480903383.18943</v>
+        <v>2386405400.073068</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1187062924679406</v>
+        <v>0.1158427314242019</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02734767810896826</v>
+        <v>0.02020293597630592</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>121</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1240451721.027386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1433413479.906694</v>
+        <v>1745935718.090302</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1618822945095327</v>
+        <v>0.1298312755047367</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04740899564909012</v>
+        <v>0.03384833442715641</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>716706712.9998091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5472234619.281416</v>
+        <v>3794256799.915349</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09715000826614249</v>
+        <v>0.0858706660492015</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03675740589494253</v>
+        <v>0.03461638428380807</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>102</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2736117306.36615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3342429238.805461</v>
+        <v>3998514010.029866</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1883087188945728</v>
+        <v>0.1227302680091149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03313224932291902</v>
+        <v>0.02436968254161271</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>109</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1671214609.020628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3779437993.474279</v>
+        <v>4081266432.055179</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1269551940349305</v>
+        <v>0.1487348370290843</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02398670399853087</v>
+        <v>0.03062653816804156</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>126</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1889719028.477796</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5249900250.694729</v>
+        <v>5087791938.894231</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1522618272556144</v>
+        <v>0.1313202418909516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03785652968210983</v>
+        <v>0.0352964497005294</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2624950165.904637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2297766357.322182</v>
+        <v>2770410582.868546</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09367540940365973</v>
+        <v>0.08501595381827888</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04022745517044056</v>
+        <v>0.03873368245047661</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>113</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1148883256.393058</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4059846320.724933</v>
+        <v>4000928862.06805</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09788568275469331</v>
+        <v>0.1439427070124476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.031842791962252</v>
+        <v>0.04981021952985683</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2029923159.781826</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1846356627.755211</v>
+        <v>2256443024.979503</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1335779371441171</v>
+        <v>0.1545388146524665</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05806581577421591</v>
+        <v>0.04751437285283098</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>923178299.0014915</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3261250236.144557</v>
+        <v>3067002865.357778</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06837565449499496</v>
+        <v>0.08963966220281663</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03451432276112996</v>
+        <v>0.03295788218053402</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>100</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1630625112.145667</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4028773443.262552</v>
+        <v>4336020193.692223</v>
       </c>
       <c r="F71" t="n">
-        <v>0.129096243908371</v>
+        <v>0.1172451230165929</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03127892899329735</v>
+        <v>0.03016475385637759</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>127</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2014386754.874158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2083512540.558529</v>
+        <v>1432324151.096798</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06547102107437193</v>
+        <v>0.07585439400142588</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04246866854529577</v>
+        <v>0.03433832621891554</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1041756203.136299</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2571273575.664552</v>
+        <v>3526086345.348358</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07575690980033116</v>
+        <v>0.1062663863689606</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0450700104621537</v>
+        <v>0.03751603500746716</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>133</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1285636823.081944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3113296447.717232</v>
+        <v>2500695666.103794</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1354799508117388</v>
+        <v>0.1749760610102256</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02387141416668859</v>
+        <v>0.03171091556118358</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>119</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1556648279.492796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2484186776.337142</v>
+        <v>2369922442.028175</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1204213951984964</v>
+        <v>0.1275012577834739</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03098302807297232</v>
+        <v>0.03106876876697491</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1242093306.968795</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4183123612.407665</v>
+        <v>3921738060.572636</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09577114379833013</v>
+        <v>0.1214373705136849</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0305885413523023</v>
+        <v>0.02891062156455377</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>77</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2091561798.609006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2258548010.02302</v>
+        <v>1792356424.418472</v>
       </c>
       <c r="F77" t="n">
-        <v>0.129205896825395</v>
+        <v>0.1851220839885635</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0259567839553341</v>
+        <v>0.03115877611972021</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1129274104.691666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3216148508.164495</v>
+        <v>4613808057.798889</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09131119886763293</v>
+        <v>0.0988109602363931</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04987986691148909</v>
+        <v>0.05397793475593515</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>122</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1608074275.927838</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1536139142.312393</v>
+        <v>1341906783.372791</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1226487103387556</v>
+        <v>0.1423520077402005</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03758577054800026</v>
+        <v>0.02911905353785964</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>768069611.7116883</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5332264378.817677</v>
+        <v>4587595410.008421</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07342378263314669</v>
+        <v>0.09375700417306655</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02888680939120814</v>
+        <v>0.03653783329578697</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2666132255.141175</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4864372457.597332</v>
+        <v>4960662764.447496</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09240801594211284</v>
+        <v>0.08717129693860264</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02279082189038711</v>
+        <v>0.02999063618242285</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2432186224.107531</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3937988845.393831</v>
+        <v>3520539872.308404</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2126605716845244</v>
+        <v>0.176893294143538</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02695200190623049</v>
+        <v>0.02597260796791009</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1968994465.920646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1938972509.66313</v>
+        <v>2053676894.005275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1238725985158945</v>
+        <v>0.145434494965102</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03448279761563627</v>
+        <v>0.03221572593540249</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>969486232.5224454</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1633396554.729027</v>
+        <v>2187054741.172994</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115966542253209</v>
+        <v>0.0903975959780005</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03212345490949554</v>
+        <v>0.03494076088500539</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>816698336.0741676</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2944314873.941658</v>
+        <v>2687830270.802581</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1115188777208749</v>
+        <v>0.151101770593262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03419133251524292</v>
+        <v>0.04293315658001427</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>131</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1472157491.006856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1793806972.39054</v>
+        <v>2400101829.015991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1250887625542709</v>
+        <v>0.1730370728160323</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01691084202606738</v>
+        <v>0.02274841758332652</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>896903485.1670853</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1446602918.020018</v>
+        <v>1410993153.767206</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1593585440346995</v>
+        <v>0.1351989693509213</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0340500143737805</v>
+        <v>0.04402043019305384</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>723301577.8083256</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3581099723.992402</v>
+        <v>3653073416.782309</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1160498060686287</v>
+        <v>0.1507940880982066</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02911706682676285</v>
+        <v>0.02470824005725696</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>139</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1790549949.890927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3145014579.404041</v>
+        <v>3483358873.672733</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1228693727117464</v>
+        <v>0.1429844879624334</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03209973083941202</v>
+        <v>0.03714056089961794</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>119</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1572507317.190982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2012829443.723099</v>
+        <v>1550154370.874327</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1058071112011208</v>
+        <v>0.1182061389341991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04536149872601219</v>
+        <v>0.03675682469455479</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1006414794.446185</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1709748731.831332</v>
+        <v>1684790922.554818</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1890402804032741</v>
+        <v>0.1183826088061877</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06138967296086159</v>
+        <v>0.05180119831117409</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>854874376.8715334</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2872464926.942916</v>
+        <v>2369666990.993753</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1074990608040676</v>
+        <v>0.08579564519835796</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0344777887218242</v>
+        <v>0.03504316265205649</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>94</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1436232475.577394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3075370909.984574</v>
+        <v>4866846374.5201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.134083962041844</v>
+        <v>0.1086863384846175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05214465497309496</v>
+        <v>0.05228258217676613</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1537685515.419017</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1667941732.23685</v>
+        <v>1769746898.833269</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1540226051171454</v>
+        <v>0.1051314283363181</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03362389239375746</v>
+        <v>0.03036153863120352</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>833970821.3140323</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2952031500.419596</v>
+        <v>2783644695.079307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046953803505505</v>
+        <v>0.09100301811700372</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03547562182122178</v>
+        <v>0.03194348987470842</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>86</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1476015753.442761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1582911333.113394</v>
+        <v>1595015146.494681</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1353856536008103</v>
+        <v>0.09730020002589959</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04606645310821144</v>
+        <v>0.03199734274494069</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>791455698.0607135</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4683348421.132434</v>
+        <v>5295925089.685905</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1122517186588863</v>
+        <v>0.1291039519026808</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02851964031758669</v>
+        <v>0.02001102513066511</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>113</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2341674321.903769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2742920832.101461</v>
+        <v>3857323100.991115</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09114448773703947</v>
+        <v>0.111393343587082</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02533898419671039</v>
+        <v>0.02515088599214786</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>96</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1371460383.304513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2232513287.800488</v>
+        <v>3344850373.521177</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002711756733014</v>
+        <v>0.1479550059306161</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03108404218970323</v>
+        <v>0.02773489021785545</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1116256574.301358</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4228567122.430385</v>
+        <v>4423758123.130725</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1316669941214065</v>
+        <v>0.1654750731261284</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01908045294075141</v>
+        <v>0.02810069530093881</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>109</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2114283650.13166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2534043738.115146</v>
+        <v>2806288187.320962</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1897540267421661</v>
+        <v>0.1471550222056869</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04837666241863949</v>
+        <v>0.04155447005701642</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>142</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1267021896.550077</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_350.xlsx
+++ b/output/fit_clients/fit_round_350.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1938893216.710784</v>
+        <v>1898689217.314301</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08652710235348206</v>
+        <v>0.1136625591642489</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0452968008967588</v>
+        <v>0.04285692353573989</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2243718237.721912</v>
+        <v>2484374775.081559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1642464602003429</v>
+        <v>0.1240346180834652</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04081388683284842</v>
+        <v>0.04455138867691892</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4405171763.448556</v>
+        <v>3845471565.84026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1182676059031632</v>
+        <v>0.1634405349370911</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02986046676135837</v>
+        <v>0.02479893514164358</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4109387609.505466</v>
+        <v>2647192214.457933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07714858026577442</v>
+        <v>0.0966463833436754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03291184521548829</v>
+        <v>0.03787271470994667</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2707404660.634152</v>
+        <v>2031465398.483064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157399357549957</v>
+        <v>0.111527859422516</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04207971471051406</v>
+        <v>0.05489782927120965</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2527860180.629256</v>
+        <v>1951362216.57889</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06777182733825887</v>
+        <v>0.06906673368456015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03941852134151071</v>
+        <v>0.0332400359007762</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3906766043.243633</v>
+        <v>2436440685.458685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2059127572568549</v>
+        <v>0.1541455701280104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02690010441544963</v>
+        <v>0.02133363708643598</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1869352642.768986</v>
+        <v>1560752571.617867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1577779504145338</v>
+        <v>0.1349186277207202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02715813538547831</v>
+        <v>0.03539284265262426</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5746440287.585694</v>
+        <v>5720932185.859694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1879946965939978</v>
+        <v>0.2119117711040789</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04794606046136077</v>
+        <v>0.03513963282390888</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4032844249.454584</v>
+        <v>2660688486.473887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1915153974468094</v>
+        <v>0.1288188858611289</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04198025602930874</v>
+        <v>0.03915837118878942</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2053314377.952838</v>
+        <v>2102322416.319603</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1310777859455407</v>
+        <v>0.1508375209453091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05203291818719254</v>
+        <v>0.04166241926171908</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4759226338.446003</v>
+        <v>4308585493.102921</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07481852981298116</v>
+        <v>0.06786506431250079</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02796981777996174</v>
+        <v>0.02690925805834314</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3005642849.984529</v>
+        <v>2667701066.143243</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1522285927859513</v>
+        <v>0.1734723574602535</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0281932277044634</v>
+        <v>0.02887583516390303</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1839550808.949789</v>
+        <v>1610355624.054041</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0801804759298749</v>
+        <v>0.09104227373204826</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03691389062205108</v>
+        <v>0.03326720969380252</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2476733289.580161</v>
+        <v>2494152170.668045</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09274967513327652</v>
+        <v>0.1119177825063765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0515623600654939</v>
+        <v>0.03445810598204587</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4691326853.154914</v>
+        <v>5114951709.611438</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1740051648659227</v>
+        <v>0.1274572521021255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04715058263495314</v>
+        <v>0.04602162900076761</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3254603583.772635</v>
+        <v>2619085384.044817</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1171017239302084</v>
+        <v>0.1162793952142899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03396785632479392</v>
+        <v>0.02868453133069605</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1282496782.784217</v>
+        <v>1252304266.445894</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1613856177087009</v>
+        <v>0.1570000758624065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02129384215645401</v>
+        <v>0.01768982768682963</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2038203116.210176</v>
+        <v>2531781144.64804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1481667299753697</v>
+        <v>0.1289752949014401</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02753296162709111</v>
+        <v>0.01962042925779063</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2272204327.550522</v>
+        <v>2691406733.726627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09517373277676494</v>
+        <v>0.0892068162778264</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04209373998384501</v>
+        <v>0.03160287840369834</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2509372859.207834</v>
+        <v>2627411819.039753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1126390132449999</v>
+        <v>0.1071646853383821</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04241057815844864</v>
+        <v>0.03918798454799571</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1546657789.98699</v>
+        <v>1497959993.970226</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1822685161131043</v>
+        <v>0.1390241017497424</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04053474949181149</v>
+        <v>0.05477180081311438</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2952515537.316441</v>
+        <v>2675330752.021451</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1069393646937012</v>
+        <v>0.1412367377820828</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03214389942566589</v>
+        <v>0.03080373854401295</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1179707215.274315</v>
+        <v>1042880102.953094</v>
       </c>
       <c r="F25" t="n">
-        <v>0.113378788881985</v>
+        <v>0.1091969268963604</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02090019898959437</v>
+        <v>0.02496516383943619</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1330667010.16312</v>
+        <v>1001861060.185092</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222535332262374</v>
+        <v>0.1192808432953804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02870230890933987</v>
+        <v>0.03464092900947557</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4026128213.786062</v>
+        <v>4175692348.970819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09754379282537051</v>
+        <v>0.1534954698524854</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01698290543340853</v>
+        <v>0.01740104667010504</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3178247908.122328</v>
+        <v>2607982731.253938</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1509032143041342</v>
+        <v>0.1338395768198583</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03796662715308968</v>
+        <v>0.04737653414809128</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5823639949.49336</v>
+        <v>4150014762.580907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1041186250724749</v>
+        <v>0.1414739035642708</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03464402099648586</v>
+        <v>0.04169800855349704</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2017881262.434786</v>
+        <v>1630917490.897845</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08552218527403911</v>
+        <v>0.1374376102266034</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0329387447479268</v>
+        <v>0.02585790336104523</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1163637603.789641</v>
+        <v>1203451027.209146</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08809993571386339</v>
+        <v>0.07873969709218812</v>
       </c>
       <c r="G31" t="n">
-        <v>0.047823142658049</v>
+        <v>0.04936749631136295</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1598145872.36196</v>
+        <v>1181204185.766428</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0861432081622068</v>
+        <v>0.10066151010515</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02524202107203629</v>
+        <v>0.03881021979609832</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1918015813.262626</v>
+        <v>2961253589.884039</v>
       </c>
       <c r="F33" t="n">
-        <v>0.178051533685658</v>
+        <v>0.1582998271260831</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04297576721935176</v>
+        <v>0.04539530132832637</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1422754017.59705</v>
+        <v>1181190464.942676</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08610481960867571</v>
+        <v>0.1185754169160714</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01897116281102669</v>
+        <v>0.02439575454611298</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286278303.581729</v>
+        <v>1046610936.482679</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07129249725634124</v>
+        <v>0.1135366823573596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03454494703390755</v>
+        <v>0.03511584655945078</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2092647142.768258</v>
+        <v>2362135609.367342</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1743561738756148</v>
+        <v>0.1567881964938128</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02558083413155834</v>
+        <v>0.02870744299961185</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2854128558.156473</v>
+        <v>2225881122.752513</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1050043067485517</v>
+        <v>0.08489598685389797</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04120641705367509</v>
+        <v>0.03645390979496436</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2172507156.067834</v>
+        <v>1650132118.596504</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07964282255841172</v>
+        <v>0.1019686188442674</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03258190634306928</v>
+        <v>0.03604152677846575</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1902551961.136356</v>
+        <v>2169786965.107226</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1411393362654008</v>
+        <v>0.1516137206751742</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02541783328422632</v>
+        <v>0.03151812882458986</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1712016637.31809</v>
+        <v>1228876580.527815</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1325110156272296</v>
+        <v>0.1518630174324911</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04980344500234836</v>
+        <v>0.05737451251109199</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2006636178.770978</v>
+        <v>2608320775.567792</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1477172199369005</v>
+        <v>0.1405010439926348</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03741310044734675</v>
+        <v>0.04440573796023144</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2772251912.401845</v>
+        <v>4121403965.151991</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1015495961707378</v>
+        <v>0.09651064888199687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02877449622251082</v>
+        <v>0.02987171840599334</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2687961780.773875</v>
+        <v>1877521246.684975</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1306316480412963</v>
+        <v>0.1436092704774595</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01883048768289978</v>
+        <v>0.02323620540321892</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1747306989.051869</v>
+        <v>2167921500.489915</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08782136112032184</v>
+        <v>0.0808544687796298</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03010287269600678</v>
+        <v>0.02391663543735842</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2442447622.172751</v>
+        <v>1592495156.253889</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1238117897580358</v>
+        <v>0.1473944715783589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04885616444551587</v>
+        <v>0.05112257876434032</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5440394663.890686</v>
+        <v>4804302082.664968</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1488747446964242</v>
+        <v>0.121891874934853</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04107334761889413</v>
+        <v>0.05088942438585239</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4374157188.145043</v>
+        <v>3266013648.050954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1911563249086199</v>
+        <v>0.177644834927977</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05510703492110784</v>
+        <v>0.05760986727711223</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3778838096.121813</v>
+        <v>3039367752.07967</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08841314118558012</v>
+        <v>0.1015915478484833</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02881865523140832</v>
+        <v>0.03381763358678463</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1577851703.392156</v>
+        <v>1457264658.44923</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1948384410566849</v>
+        <v>0.1208472997238876</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04150466402826904</v>
+        <v>0.03667830322646354</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3838364108.563665</v>
+        <v>3305957015.297625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1720608869386678</v>
+        <v>0.1174836565779082</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04168395077731734</v>
+        <v>0.03943964956269993</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1540423507.7187</v>
+        <v>1397565254.54559</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1354102661316071</v>
+        <v>0.1683834376458196</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04539741066491386</v>
+        <v>0.0423976351434088</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4615666387.05854</v>
+        <v>3265808966.509491</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1145658789641876</v>
+        <v>0.109415663204288</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04106862027688164</v>
+        <v>0.04680595283460719</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2670751953.504591</v>
+        <v>3156385038.83747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1842105766864363</v>
+        <v>0.2017934605896018</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02538794679084823</v>
+        <v>0.02488061323583169</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4805578142.63007</v>
+        <v>4717164748.540101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1173527845546071</v>
+        <v>0.1078788013094172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0365844340967124</v>
+        <v>0.04357068512417264</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4483845751.055878</v>
+        <v>4463569894.208278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.223782199727985</v>
+        <v>0.1653581029710963</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02018727843139561</v>
+        <v>0.02131717578447023</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1693214821.62231</v>
+        <v>1164923443.0203</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1618303001761524</v>
+        <v>0.1529261448640485</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03908976545391998</v>
+        <v>0.03637546882264833</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3497591312.657788</v>
+        <v>3919057812.456655</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1579366127837878</v>
+        <v>0.1345774981873882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02517029621328783</v>
+        <v>0.02367346653429723</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1736856469.566227</v>
+        <v>1375691554.363865</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1252048450009422</v>
+        <v>0.1424626073623498</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0285344501081253</v>
+        <v>0.02394100186632222</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4692782600.413813</v>
+        <v>5402104819.36744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09318142737097505</v>
+        <v>0.1162935879310389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04050404219822438</v>
+        <v>0.03508348200322626</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2700703211.042998</v>
+        <v>3003503993.81474</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1544629308997225</v>
+        <v>0.1403064279097191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02708680993343015</v>
+        <v>0.02567005322568479</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2386405400.073068</v>
+        <v>3358576940.017292</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1158427314242019</v>
+        <v>0.1178963074070772</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02020293597630592</v>
+        <v>0.02650593546724317</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1745935718.090302</v>
+        <v>2083229992.010752</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1298312755047367</v>
+        <v>0.1608356900034244</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03384833442715641</v>
+        <v>0.03049911220684867</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3794256799.915349</v>
+        <v>4962966354.055911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0858706660492015</v>
+        <v>0.09080244972309762</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03461638428380807</v>
+        <v>0.03495937323083607</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3998514010.029866</v>
+        <v>4619607435.532623</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1227302680091149</v>
+        <v>0.1734934896264865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02436968254161271</v>
+        <v>0.03459416935589427</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4081266432.055179</v>
+        <v>6007823979.833413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1487348370290843</v>
+        <v>0.1473605134404123</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03062653816804156</v>
+        <v>0.02381554808641635</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5087791938.894231</v>
+        <v>4688729887.347456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1313202418909516</v>
+        <v>0.1149831174422535</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0352964497005294</v>
+        <v>0.03232448801094542</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2770410582.868546</v>
+        <v>3422893172.279858</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08501595381827888</v>
+        <v>0.06340459384451309</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03873368245047661</v>
+        <v>0.03454915045290891</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4000928862.06805</v>
+        <v>3663190527.101831</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1439427070124476</v>
+        <v>0.1085757863286064</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04981021952985683</v>
+        <v>0.04915524901951841</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2256443024.979503</v>
+        <v>2317858708.898622</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1545388146524665</v>
+        <v>0.1337063002418039</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04751437285283098</v>
+        <v>0.04608758606308389</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3067002865.357778</v>
+        <v>3132568773.858598</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08963966220281663</v>
+        <v>0.08835552397039903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03295788218053402</v>
+        <v>0.03592047769841873</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4336020193.692223</v>
+        <v>3528566067.298294</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1172451230165929</v>
+        <v>0.1219425883110127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03016475385637759</v>
+        <v>0.03384832957323985</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1432324151.096798</v>
+        <v>1598487801.62646</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07585439400142588</v>
+        <v>0.06721820633975201</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03433832621891554</v>
+        <v>0.04987179325162251</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3526086345.348358</v>
+        <v>3553387870.672423</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1062663863689606</v>
+        <v>0.07379094521495967</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03751603500746716</v>
+        <v>0.04980619731707735</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2500695666.103794</v>
+        <v>2493919187.697638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1749760610102256</v>
+        <v>0.1777694561069705</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03171091556118358</v>
+        <v>0.02439787733848462</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2369922442.028175</v>
+        <v>1823005259.993557</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1275012577834739</v>
+        <v>0.1016880695183067</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03106876876697491</v>
+        <v>0.02305626242781223</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3921738060.572636</v>
+        <v>4552072960.966945</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1214373705136849</v>
+        <v>0.08981738859037247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02891062156455377</v>
+        <v>0.03306156319278451</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1792356424.418472</v>
+        <v>1822808350.643457</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1851220839885635</v>
+        <v>0.1752813127904327</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03115877611972021</v>
+        <v>0.02719732265713494</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4613808057.798889</v>
+        <v>3191918312.611596</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0988109602363931</v>
+        <v>0.1015915650379224</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05397793475593515</v>
+        <v>0.04188948222137605</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1341906783.372791</v>
+        <v>1331536916.972396</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1423520077402005</v>
+        <v>0.1517750536476541</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02911905353785964</v>
+        <v>0.04057443263306081</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4587595410.008421</v>
+        <v>5596763263.125569</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09375700417306655</v>
+        <v>0.1041612350040265</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03653783329578697</v>
+        <v>0.03412357587083093</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4960662764.447496</v>
+        <v>3894235559.718979</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08717129693860264</v>
+        <v>0.1046736512273967</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02999063618242285</v>
+        <v>0.02374706200095512</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3520539872.308404</v>
+        <v>4543290755.898564</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176893294143538</v>
+        <v>0.1376595509642649</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02597260796791009</v>
+        <v>0.02662311046874323</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2053676894.005275</v>
+        <v>1745291417.974825</v>
       </c>
       <c r="F83" t="n">
-        <v>0.145434494965102</v>
+        <v>0.1456252767664899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03221572593540249</v>
+        <v>0.04277217637472329</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2187054741.172994</v>
+        <v>1935452555.137761</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0903975959780005</v>
+        <v>0.09647365684823504</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03494076088500539</v>
+        <v>0.04540187465338486</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2687830270.802581</v>
+        <v>3648525299.777627</v>
       </c>
       <c r="F85" t="n">
-        <v>0.151101770593262</v>
+        <v>0.1503988603714176</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04293315658001427</v>
+        <v>0.03854932684232996</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2400101829.015991</v>
+        <v>2062021793.031461</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1730370728160323</v>
+        <v>0.1282351320614667</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02274841758332652</v>
+        <v>0.02182217517937587</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1410993153.767206</v>
+        <v>996530509.2419646</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1351989693509213</v>
+        <v>0.12623565620199</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04402043019305384</v>
+        <v>0.03594717588078327</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3653073416.782309</v>
+        <v>2793534173.285814</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1507940880982066</v>
+        <v>0.1276181821973326</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02470824005725696</v>
+        <v>0.03248024463427353</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3483358873.672733</v>
+        <v>2301209889.178665</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1429844879624334</v>
+        <v>0.1222048768899172</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03714056089961794</v>
+        <v>0.02906582563320118</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1550154370.874327</v>
+        <v>1508473052.423918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1182061389341991</v>
+        <v>0.1039880145354155</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03675682469455479</v>
+        <v>0.03749448950119318</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1684790922.554818</v>
+        <v>1545055348.229921</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1183826088061877</v>
+        <v>0.1867320620260478</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05180119831117409</v>
+        <v>0.05406824913638859</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2369666990.993753</v>
+        <v>2487058363.319348</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08579564519835796</v>
+        <v>0.09591422057178289</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03504316265205649</v>
+        <v>0.03470590497996828</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4866846374.5201</v>
+        <v>4662590534.568302</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1086863384846175</v>
+        <v>0.1082425065887016</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05228258217676613</v>
+        <v>0.04290828443993922</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1769746898.833269</v>
+        <v>2453938763.889114</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1051314283363181</v>
+        <v>0.1261870694896924</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03036153863120352</v>
+        <v>0.03303805239804485</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2783644695.079307</v>
+        <v>2237992968.029057</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09100301811700372</v>
+        <v>0.1317032100776416</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03194348987470842</v>
+        <v>0.05162176051699703</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1595015146.494681</v>
+        <v>1582160614.44652</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09730020002589959</v>
+        <v>0.09857999447132404</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03199734274494069</v>
+        <v>0.04716294208235191</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5295925089.685905</v>
+        <v>4678253852.968274</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1291039519026808</v>
+        <v>0.1158423769634952</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02001102513066511</v>
+        <v>0.02407820347182586</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3857323100.991115</v>
+        <v>3347131613.462592</v>
       </c>
       <c r="F98" t="n">
-        <v>0.111393343587082</v>
+        <v>0.0845450921917975</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02515088599214786</v>
+        <v>0.02853234316992369</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3344850373.521177</v>
+        <v>2601792029.1336</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1479550059306161</v>
+        <v>0.1084821175802749</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02773489021785545</v>
+        <v>0.02180433872952855</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4423758123.130725</v>
+        <v>4707705816.699629</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1654750731261284</v>
+        <v>0.1427248735315658</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02810069530093881</v>
+        <v>0.02742212340074699</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2806288187.320962</v>
+        <v>3183473758.835889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1471550222056869</v>
+        <v>0.1990320268457805</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04155447005701642</v>
+        <v>0.04280394630733833</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_350.xlsx
+++ b/output/fit_clients/fit_round_350.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1898689217.314301</v>
+        <v>1784198413.417354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136625591642489</v>
+        <v>0.1002286395231251</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04285692353573989</v>
+        <v>0.0440720752672541</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2484374775.081559</v>
+        <v>2089305678.53588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1240346180834652</v>
+        <v>0.1311391921492557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04455138867691892</v>
+        <v>0.04837522360521076</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3845471565.84026</v>
+        <v>5210762115.914399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1634405349370911</v>
+        <v>0.1639799714641593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02479893514164358</v>
+        <v>0.0325355984284497</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>181</v>
+      </c>
+      <c r="J4" t="n">
+        <v>349</v>
+      </c>
+      <c r="K4" t="n">
+        <v>63.00292019768556</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2647192214.457933</v>
+        <v>3846386096.104066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0966463833436754</v>
+        <v>0.08778042064800216</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03787271470994667</v>
+        <v>0.04026558347543385</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>140</v>
+      </c>
+      <c r="J5" t="n">
+        <v>350</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72.24988372618074</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2031465398.483064</v>
+        <v>2633958982.309639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.111527859422516</v>
+        <v>0.1384422734192392</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05489782927120965</v>
+        <v>0.04023851991719249</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1951362216.57889</v>
+        <v>1954958219.373093</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06906673368456015</v>
+        <v>0.08682466989899039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0332400359007762</v>
+        <v>0.03793411191360779</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2436440685.458685</v>
+        <v>2622733943.342258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1541455701280104</v>
+        <v>0.1544706306282136</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02133363708643598</v>
+        <v>0.03279579489493492</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>347</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1560752571.617867</v>
+        <v>1773717978.713337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1349186277207202</v>
+        <v>0.184137383826954</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03539284265262426</v>
+        <v>0.02661405593394307</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +785,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5720932185.859694</v>
+        <v>4906374681.348804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2119117711040789</v>
+        <v>0.1816494613111178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03513963282390888</v>
+        <v>0.05120650333538661</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>295</v>
+      </c>
+      <c r="J10" t="n">
+        <v>350</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2660688486.473887</v>
+        <v>2605629258.466758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1288188858611289</v>
+        <v>0.1154189027712422</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03915837118878942</v>
+        <v>0.0336520733743922</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>145</v>
+      </c>
+      <c r="J11" t="n">
+        <v>349</v>
+      </c>
+      <c r="K11" t="n">
+        <v>29.26520650759235</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2102322416.319603</v>
+        <v>3298796662.052594</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1508375209453091</v>
+        <v>0.1616688128106319</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04166241926171908</v>
+        <v>0.04589637781984045</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4308585493.102921</v>
+        <v>3276220473.397401</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06786506431250079</v>
+        <v>0.06979213545850796</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02690925805834314</v>
+        <v>0.02981624670316233</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>181</v>
+      </c>
+      <c r="J13" t="n">
+        <v>348</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2667701066.143243</v>
+        <v>2401699035.811099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1734723574602535</v>
+        <v>0.1192849608981352</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02887583516390303</v>
+        <v>0.03007762714567557</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="n">
+        <v>28.60625918379357</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1610355624.054041</v>
+        <v>1382547845.259164</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09104227373204826</v>
+        <v>0.1051431679922939</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03326720969380252</v>
+        <v>0.03565570649217589</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2494152170.668045</v>
+        <v>2869681271.922175</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119177825063765</v>
+        <v>0.1104456703786571</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03445810598204587</v>
+        <v>0.05061645286377336</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5114951709.611438</v>
+        <v>3237420059.73175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1274572521021255</v>
+        <v>0.1457701740791134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04602162900076761</v>
+        <v>0.04572017160870463</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>165</v>
+      </c>
+      <c r="J17" t="n">
+        <v>348</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2619085384.044817</v>
+        <v>3425839128.48116</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1162793952142899</v>
+        <v>0.1180603699979078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02868453133069605</v>
+        <v>0.02642340574939745</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252304266.445894</v>
+        <v>963245032.1813269</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1570000758624065</v>
+        <v>0.1154014842181878</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01768982768682963</v>
+        <v>0.0256345915065822</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2531781144.64804</v>
+        <v>1711355211.164786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1289752949014401</v>
+        <v>0.1518583791501161</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01962042925779063</v>
+        <v>0.03004575381526451</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2691406733.726627</v>
+        <v>2201451686.340114</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0892068162778264</v>
+        <v>0.07160860586077537</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03160287840369834</v>
+        <v>0.03210958572661993</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2627411819.039753</v>
+        <v>3440716762.070838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1071646853383821</v>
+        <v>0.1217427089642189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03918798454799571</v>
+        <v>0.04331216980075697</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>350</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1497959993.970226</v>
+        <v>1158728197.399737</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1390241017497424</v>
+        <v>0.1366760261987755</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05477180081311438</v>
+        <v>0.04036585423065338</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2675330752.021451</v>
+        <v>3407596558.522338</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1412367377820828</v>
+        <v>0.1165968497690623</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03080373854401295</v>
+        <v>0.03048341195879633</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>104</v>
+      </c>
+      <c r="J24" t="n">
+        <v>348</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1042880102.953094</v>
+        <v>1106364658.479294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1091969268963604</v>
+        <v>0.1207749928002471</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02496516383943619</v>
+        <v>0.03086692264178004</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1001861060.185092</v>
+        <v>1330328055.146539</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1192808432953804</v>
+        <v>0.1012802712584092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03464092900947557</v>
+        <v>0.02585012927000409</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4175692348.970819</v>
+        <v>4605553910.819532</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1534954698524854</v>
+        <v>0.1207359554738493</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01740104667010504</v>
+        <v>0.01731467007280398</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>145</v>
+      </c>
+      <c r="J27" t="n">
+        <v>350</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2607982731.253938</v>
+        <v>3808329645.447254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1338395768198583</v>
+        <v>0.1192241459082891</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04737653414809128</v>
+        <v>0.03111622156946094</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>350</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4150014762.580907</v>
+        <v>4401249731.056382</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1414739035642708</v>
+        <v>0.1049002391388045</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04169800855349704</v>
+        <v>0.04016571524736184</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>313</v>
+      </c>
+      <c r="J29" t="n">
+        <v>349</v>
+      </c>
+      <c r="K29" t="n">
+        <v>63.93226673143665</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1630917490.897845</v>
+        <v>1960766473.92845</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1374376102266034</v>
+        <v>0.09048760895513025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02585790336104523</v>
+        <v>0.03128844587430647</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1203451027.209146</v>
+        <v>1355844739.822297</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07873969709218812</v>
+        <v>0.1001038134923813</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04936749631136295</v>
+        <v>0.04244948249159391</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1181204185.766428</v>
+        <v>1774469500.520322</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10066151010515</v>
+        <v>0.07929223975155376</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03881021979609832</v>
+        <v>0.03811565724156177</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2961253589.884039</v>
+        <v>2071807359.269864</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1582998271260831</v>
+        <v>0.1307554664787773</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04539530132832637</v>
+        <v>0.04499151869295898</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1181190464.942676</v>
+        <v>1022282935.971103</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1185754169160714</v>
+        <v>0.1040686538080398</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02439575454611298</v>
+        <v>0.02270365513186003</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1046610936.482679</v>
+        <v>1151920131.359157</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1135366823573596</v>
+        <v>0.07486857763387023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03511584655945078</v>
+        <v>0.03545054451039303</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2362135609.367342</v>
+        <v>2015337559.449222</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1567881964938128</v>
+        <v>0.1658189980766438</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02870744299961185</v>
+        <v>0.02826732315277219</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2225881122.752513</v>
+        <v>2006112429.560637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08489598685389797</v>
+        <v>0.07610658113840855</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03645390979496436</v>
+        <v>0.02955592517005255</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1650132118.596504</v>
+        <v>1927383431.538735</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1019686188442674</v>
+        <v>0.1025369904944076</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03604152677846575</v>
+        <v>0.03432564917666238</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2169786965.107226</v>
+        <v>1462765779.313383</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1516137206751742</v>
+        <v>0.1776688469322481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03151812882458986</v>
+        <v>0.02114488049672218</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1228876580.527815</v>
+        <v>1583065372.023338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1518630174324911</v>
+        <v>0.1580622765357103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05737451251109199</v>
+        <v>0.04663148002375053</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2608320775.567792</v>
+        <v>2450612907.696405</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1405010439926348</v>
+        <v>0.104627668785045</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04440573796023144</v>
+        <v>0.03779510626020395</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4121403965.151991</v>
+        <v>3446503935.772536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09651064888199687</v>
+        <v>0.09040539763658173</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02987171840599334</v>
+        <v>0.02928981340619757</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>152</v>
+      </c>
+      <c r="J42" t="n">
+        <v>350</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1877521246.684975</v>
+        <v>2461315413.130666</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1436092704774595</v>
+        <v>0.1348770662609581</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02323620540321892</v>
+        <v>0.02366847999099966</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2167921500.489915</v>
+        <v>1894615090.948663</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0808544687796298</v>
+        <v>0.07283111436451996</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02391663543735842</v>
+        <v>0.03685210305178986</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1592495156.253889</v>
+        <v>2542712801.783399</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1473944715783589</v>
+        <v>0.1808300667605086</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05112257876434032</v>
+        <v>0.03413078917270499</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4804302082.664968</v>
+        <v>5290862739.266725</v>
       </c>
       <c r="F46" t="n">
-        <v>0.121891874934853</v>
+        <v>0.171007069042673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05088942438585239</v>
+        <v>0.03835800003593288</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>210</v>
+      </c>
+      <c r="J46" t="n">
+        <v>350</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3266013648.050954</v>
+        <v>3721850730.375057</v>
       </c>
       <c r="F47" t="n">
-        <v>0.177644834927977</v>
+        <v>0.1528195178902723</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05760986727711223</v>
+        <v>0.05572631566031064</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>156</v>
+      </c>
+      <c r="J47" t="n">
+        <v>350</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3039367752.07967</v>
+        <v>3723705399.045873</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1015915478484833</v>
+        <v>0.08598297338131243</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03381763358678463</v>
+        <v>0.03420165165738487</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>175</v>
+      </c>
+      <c r="J48" t="n">
+        <v>349</v>
+      </c>
+      <c r="K48" t="n">
+        <v>57.82627583712545</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1457264658.44923</v>
+        <v>1830879342.251698</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1208472997238876</v>
+        <v>0.1315291446137405</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03667830322646354</v>
+        <v>0.03158724790003819</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3305957015.297625</v>
+        <v>3068442011.00252</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1174836565779082</v>
+        <v>0.1338419577990995</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03943964956269993</v>
+        <v>0.03794346014587661</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>347</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1397565254.54559</v>
+        <v>1104444659.061458</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1683834376458196</v>
+        <v>0.1599347719524417</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0423976351434088</v>
+        <v>0.0542944518411544</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3265808966.509491</v>
+        <v>3954183429.994518</v>
       </c>
       <c r="F52" t="n">
-        <v>0.109415663204288</v>
+        <v>0.1323415896318076</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04680595283460719</v>
+        <v>0.04606867223452598</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>209</v>
+      </c>
+      <c r="J52" t="n">
+        <v>349</v>
+      </c>
+      <c r="K52" t="n">
+        <v>58.02453579457265</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3156385038.83747</v>
+        <v>3043613986.448254</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2017934605896018</v>
+        <v>0.16506760293366</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02488061323583169</v>
+        <v>0.02605780619324284</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4717164748.540101</v>
+        <v>4906274962.849299</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1078788013094172</v>
+        <v>0.1396126434556765</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04357068512417264</v>
+        <v>0.03711806633919391</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>184</v>
+      </c>
+      <c r="J54" t="n">
+        <v>349</v>
+      </c>
+      <c r="K54" t="n">
+        <v>64.15446198865098</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4463569894.208278</v>
+        <v>3463359888.170805</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1653581029710963</v>
+        <v>0.2227425391484403</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02131717578447023</v>
+        <v>0.02767595905103921</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>168</v>
+      </c>
+      <c r="J55" t="n">
+        <v>349</v>
+      </c>
+      <c r="K55" t="n">
+        <v>47.38981579486042</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1164923443.0203</v>
+        <v>1427459652.060195</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1529261448640485</v>
+        <v>0.100237761235236</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03637546882264833</v>
+        <v>0.03612620268227263</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3919057812.456655</v>
+        <v>4546060031.693276</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1345774981873882</v>
+        <v>0.1842780955184598</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02367346653429723</v>
+        <v>0.0277035900893046</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>143</v>
+      </c>
+      <c r="J57" t="n">
+        <v>350</v>
+      </c>
+      <c r="K57" t="n">
+        <v>71.5374695175429</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1375691554.363865</v>
+        <v>1597177737.038648</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1424626073623498</v>
+        <v>0.1243485080104524</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02394100186632222</v>
+        <v>0.0294741883283235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5402104819.36744</v>
+        <v>3442397589.505839</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1162935879310389</v>
+        <v>0.07997257790563209</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03508348200322626</v>
+        <v>0.03363637114531216</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>169</v>
+      </c>
+      <c r="J59" t="n">
+        <v>349</v>
+      </c>
+      <c r="K59" t="n">
+        <v>45.09307924993534</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3003503993.81474</v>
+        <v>2854617147.110915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1403064279097191</v>
+        <v>0.2028317636300812</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02567005322568479</v>
+        <v>0.02894152538605901</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>62</v>
+      </c>
+      <c r="J60" t="n">
+        <v>349</v>
+      </c>
+      <c r="K60" t="n">
+        <v>42.08311933654601</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3358576940.017292</v>
+        <v>3093537705.150158</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1178963074070772</v>
+        <v>0.1750794041704884</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02650593546724317</v>
+        <v>0.02804876527084316</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2083229992.010752</v>
+        <v>1601905129.080871</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1608356900034244</v>
+        <v>0.190270547792404</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03049911220684867</v>
+        <v>0.04793544266722519</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4962966354.055911</v>
+        <v>5271712621.566981</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09080244972309762</v>
+        <v>0.0781270794910961</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03495937323083607</v>
+        <v>0.04015656874578562</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>172</v>
+      </c>
+      <c r="J63" t="n">
+        <v>349</v>
+      </c>
+      <c r="K63" t="n">
+        <v>60.98860610614181</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4619607435.532623</v>
+        <v>4087510696.557087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1734934896264865</v>
+        <v>0.1629565290453589</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03459416935589427</v>
+        <v>0.02793609802079328</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>173</v>
+      </c>
+      <c r="J64" t="n">
+        <v>349</v>
+      </c>
+      <c r="K64" t="n">
+        <v>64.61425447185731</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6007823979.833413</v>
+        <v>4516709733.826638</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1473605134404123</v>
+        <v>0.1375085650928353</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02381554808641635</v>
+        <v>0.02900002776047424</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>269</v>
+      </c>
+      <c r="J65" t="n">
+        <v>350</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4688729887.347456</v>
+        <v>4075449800.924491</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149831174422535</v>
+        <v>0.114974051596981</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03232448801094542</v>
+        <v>0.0509350123907515</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>173</v>
+      </c>
+      <c r="J66" t="n">
+        <v>349</v>
+      </c>
+      <c r="K66" t="n">
+        <v>58.12601460740241</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3422893172.279858</v>
+        <v>2251764016.552402</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06340459384451309</v>
+        <v>0.07683980157759857</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03454915045290891</v>
+        <v>0.04944823548370884</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3663190527.101831</v>
+        <v>5857983847.437918</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1085757863286064</v>
+        <v>0.1332844263433577</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04915524901951841</v>
+        <v>0.05026845021244707</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>190</v>
+      </c>
+      <c r="J68" t="n">
+        <v>350</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2317858708.898622</v>
+        <v>2211074514.418044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1337063002418039</v>
+        <v>0.1201288871718093</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04608758606308389</v>
+        <v>0.05621528640310375</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3132568773.858598</v>
+        <v>3420937096.770097</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08835552397039903</v>
+        <v>0.07268622833751925</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03592047769841873</v>
+        <v>0.03868959655207896</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3528566067.298294</v>
+        <v>5447868764.678706</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219425883110127</v>
+        <v>0.1654675051264659</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03384832957323985</v>
+        <v>0.02535764098869198</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>256</v>
+      </c>
+      <c r="J71" t="n">
+        <v>349</v>
+      </c>
+      <c r="K71" t="n">
+        <v>63.70178586840122</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1598487801.62646</v>
+        <v>1938324211.186816</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06721820633975201</v>
+        <v>0.08290724439516851</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04987179325162251</v>
+        <v>0.04884488852511628</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3553387870.672423</v>
+        <v>2458436167.793875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07379094521495967</v>
+        <v>0.09968795462236418</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04980619731707735</v>
+        <v>0.04537152387283298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2493919187.697638</v>
+        <v>3101441877.475541</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1777694561069705</v>
+        <v>0.1347621968253578</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02439787733848462</v>
+        <v>0.03216361528921281</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>95</v>
+      </c>
+      <c r="J74" t="n">
+        <v>348</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1823005259.993557</v>
+        <v>2058906347.212497</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1016880695183067</v>
+        <v>0.1209106062073303</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02305626242781223</v>
+        <v>0.02814008339519268</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4552072960.966945</v>
+        <v>5065666223.652045</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08981738859037247</v>
+        <v>0.1149121735100252</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03306156319278451</v>
+        <v>0.0286249861992993</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>165</v>
+      </c>
+      <c r="J76" t="n">
+        <v>350</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1822808350.643457</v>
+        <v>2313104373.340969</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1752813127904327</v>
+        <v>0.1727947326528272</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02719732265713494</v>
+        <v>0.02597273178041597</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3191918312.611596</v>
+        <v>3146749522.090162</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1015915650379224</v>
+        <v>0.1161589540490123</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04188948222137605</v>
+        <v>0.05705618275310297</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>174</v>
+      </c>
+      <c r="J78" t="n">
+        <v>348</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1331536916.972396</v>
+        <v>1905665147.1176</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1517750536476541</v>
+        <v>0.1476913584698741</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04057443263306081</v>
+        <v>0.03524569935673263</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5596763263.125569</v>
+        <v>4907859071.258576</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1041612350040265</v>
+        <v>0.09854482290136865</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03412357587083093</v>
+        <v>0.02684729757280926</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>171</v>
+      </c>
+      <c r="J80" t="n">
+        <v>349</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.52530667068709</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3894235559.718979</v>
+        <v>4185373688.071101</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1046736512273967</v>
+        <v>0.09948544957245067</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02374706200095512</v>
+        <v>0.02958246117590889</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>161</v>
+      </c>
+      <c r="J81" t="n">
+        <v>350</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4543290755.898564</v>
+        <v>4155129931.12054</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1376595509642649</v>
+        <v>0.1745412103003074</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02662311046874323</v>
+        <v>0.02866237079958098</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>248</v>
+      </c>
+      <c r="J82" t="n">
+        <v>350</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1745291417.974825</v>
+        <v>1896068109.724607</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1456252767664899</v>
+        <v>0.1474612980724407</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04277217637472329</v>
+        <v>0.0282676083384175</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1935452555.137761</v>
+        <v>2058947672.901145</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09647365684823504</v>
+        <v>0.1208449664413553</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04540187465338486</v>
+        <v>0.04983338646940418</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3648525299.777627</v>
+        <v>3314397742.394255</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1503988603714176</v>
+        <v>0.1339048390190022</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03854932684232996</v>
+        <v>0.05604945931280535</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2062021793.031461</v>
+        <v>2214985307.978548</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282351320614667</v>
+        <v>0.162009957353339</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02182217517937587</v>
+        <v>0.02592499712720052</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>996530509.2419646</v>
+        <v>1274164553.420992</v>
       </c>
       <c r="F87" t="n">
-        <v>0.12623565620199</v>
+        <v>0.1684777564643955</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03594717588078327</v>
+        <v>0.03102945479059859</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2793534173.285814</v>
+        <v>3279369596.340266</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1276181821973326</v>
+        <v>0.1657024178326609</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03248024463427353</v>
+        <v>0.03481402211293749</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2301209889.178665</v>
+        <v>2945550167.802108</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1222048768899172</v>
+        <v>0.1364678422276291</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02906582563320118</v>
+        <v>0.03962856519272107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1508473052.423918</v>
+        <v>1610148485.892231</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039880145354155</v>
+        <v>0.1337806441226533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03749448950119318</v>
+        <v>0.04128523272155468</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1545055348.229921</v>
+        <v>1314510615.25991</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1867320620260478</v>
+        <v>0.1556952292591546</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05406824913638859</v>
+        <v>0.04475316738847059</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2487058363.319348</v>
+        <v>2364788727.55432</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09591422057178289</v>
+        <v>0.08015185241888002</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03470590497996828</v>
+        <v>0.03578971237534437</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4662590534.568302</v>
+        <v>4619028619.468644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1082425065887016</v>
+        <v>0.1407734409604974</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04290828443993922</v>
+        <v>0.05158665015744519</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>162</v>
+      </c>
+      <c r="J93" t="n">
+        <v>350</v>
+      </c>
+      <c r="K93" t="n">
+        <v>64.69637358379916</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2453938763.889114</v>
+        <v>1592113616.257538</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1261870694896924</v>
+        <v>0.1382267847409839</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03303805239804485</v>
+        <v>0.02873078171304584</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2237992968.029057</v>
+        <v>2853359974.483109</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1317032100776416</v>
+        <v>0.1304300355603535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05162176051699703</v>
+        <v>0.04552251271105935</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1582160614.44652</v>
+        <v>1949312139.065397</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09857999447132404</v>
+        <v>0.09290128438427185</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04716294208235191</v>
+        <v>0.03453049672744125</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4678253852.968274</v>
+        <v>5203123331.654338</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1158423769634952</v>
+        <v>0.1212630354233925</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02407820347182586</v>
+        <v>0.02484771334662884</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>180</v>
+      </c>
+      <c r="J97" t="n">
+        <v>350</v>
+      </c>
+      <c r="K97" t="n">
+        <v>65.03975266013465</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3347131613.462592</v>
+        <v>3706702458.430784</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0845450921917975</v>
+        <v>0.1036122430123561</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02853234316992369</v>
+        <v>0.02910747756587379</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2601792029.1336</v>
+        <v>2511600431.581548</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1084821175802749</v>
+        <v>0.1162788604978961</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02180433872952855</v>
+        <v>0.02800368565310726</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4707705816.699629</v>
+        <v>4778627172.56873</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1427248735315658</v>
+        <v>0.1627448749177697</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02742212340074699</v>
+        <v>0.02633560929021212</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>158</v>
+      </c>
+      <c r="J100" t="n">
+        <v>350</v>
+      </c>
+      <c r="K100" t="n">
+        <v>65.23889522430439</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3183473758.835889</v>
+        <v>3239706968.578993</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1990320268457805</v>
+        <v>0.1353909370851</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04280394630733833</v>
+        <v>0.04357416769519265</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
